--- a/data/income_statement/2digits/size/79_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/79_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>79-Travel agency, tour operator and other reservation service and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>79-Travel agency, tour operator and other reservation service and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,878 +841,993 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3170499.62803</v>
+        <v>3176875.6213</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3803653.38455</v>
+        <v>3791113.05054</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4483901.876099999</v>
+        <v>4472262.50558</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4955695.7984</v>
+        <v>5000666.6269</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6265188.47077</v>
+        <v>6341899.6848</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7349626.39738</v>
+        <v>7397889.240580001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7888251.099589999</v>
+        <v>7982717.00482</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7699445.154639999</v>
+        <v>7752565.05019</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9969637.903209999</v>
+        <v>10110354.93755</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14957868.7968</v>
+        <v>15065185.83014</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16543599.28207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16635179.04536</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7107861.602</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1902049.10591</v>
+        <v>1907702.80763</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2324183.33227</v>
+        <v>2318397.23629</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2602022.10297</v>
+        <v>2584695.85243</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2949353.26663</v>
+        <v>2974864.229100001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3783625.48209</v>
+        <v>3858886.01629</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4461168.78874</v>
+        <v>4488516.10761</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4991619.163939999</v>
+        <v>5050036.602480001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4785277.34168</v>
+        <v>4835663.75453</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5702728.29128</v>
+        <v>5780446.41076</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8427539.333219999</v>
+        <v>8492843.663960001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9756629.157449998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9782404.14271</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4731964.561</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1201209.89625</v>
+        <v>1201436.11972</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1382982.13217</v>
+        <v>1379961.98972</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1785057.27565</v>
+        <v>1787591.84672</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1892839.60244</v>
+        <v>1911659.49442</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2330776.75076</v>
+        <v>2329359.0283</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2728891.10625</v>
+        <v>2750990.4201</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2758086.65907</v>
+        <v>2796722.65089</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2769403.22443</v>
+        <v>2771973.67334</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4098291.82345</v>
+        <v>4143485.66396</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6272924.4406</v>
+        <v>6314906.89363</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>6455964.68174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6507491.173450001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2200096.937</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>67240.62587</v>
+        <v>67736.69395</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>96487.92011000001</v>
+        <v>92753.82453</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>96822.49747999999</v>
+        <v>99974.80643000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>113502.92933</v>
+        <v>114142.90338</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>150786.23792</v>
+        <v>153654.64021</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>159566.50239</v>
+        <v>158382.71287</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>138545.27658</v>
+        <v>135957.75145</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>144764.58853</v>
+        <v>144927.62232</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>168617.78848</v>
+        <v>186422.86283</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>257405.02298</v>
+        <v>257435.27255</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>331005.44288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>345283.7292000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>175800.104</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>35937.57467</v>
+        <v>36615.21981</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>46449.32999000001</v>
+        <v>46449.18656</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>41503.41475</v>
+        <v>40464.11539</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>50426.13692</v>
+        <v>50789.44826</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>72594.05145999999</v>
+        <v>55358.64374</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>71440.45674000001</v>
+        <v>71259.74591</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>88446.51138000001</v>
+        <v>90507.99403</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>120012.35815</v>
+        <v>124773.91889</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>118536.51181</v>
+        <v>126814.39182</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>232105.32178</v>
+        <v>229588.83103</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>215489.69703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>212419.80718</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>226303.284</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>28760.14252</v>
+        <v>29399.56159</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>41165.14647</v>
+        <v>41215.54594</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>35632.66569</v>
+        <v>34925.83102000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>44034.93196</v>
+        <v>44130.20979</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>51227.65446</v>
+        <v>51804.48219</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>67146.60712999999</v>
+        <v>67016.43921</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>83652.53572</v>
+        <v>84969.29985000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>100227.42554</v>
+        <v>102347.6223</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>104422.18541</v>
+        <v>112762.06246</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>214932.46456</v>
+        <v>212508.52869</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>201528.94057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>198553.5252</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>221622.879</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6306.88035</v>
+        <v>6236.719359999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4966.78161</v>
+        <v>4917.14713</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4720.47876</v>
+        <v>4678.96158</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5803.757570000001</v>
+        <v>6071.79108</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3078.76614</v>
+        <v>3005.81707</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3269.12123</v>
+        <v>3225.96187</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3185.16677</v>
+        <v>3928.92194</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>18482.61287</v>
+        <v>21135.80214</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>12599.58182</v>
+        <v>12540.01815</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>16759.61487</v>
+        <v>16759.27504</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7747.16103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7741.09217</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1976.822</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>870.5518000000001</v>
+        <v>978.93886</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>317.40191</v>
+        <v>316.49349</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1150.2703</v>
+        <v>859.3227900000001</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>587.44739</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>18287.63086</v>
+        <v>548.34448</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1024.72838</v>
+        <v>1017.34483</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1608.80889</v>
+        <v>1609.77224</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1302.31974</v>
+        <v>1290.49445</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1514.74458</v>
+        <v>1512.31121</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>413.24235</v>
+        <v>321.0273</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6213.595429999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6125.18981</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2703.583</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3134562.05336</v>
+        <v>3140260.40149</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3757204.05456</v>
+        <v>3744663.86398</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4442398.46135</v>
+        <v>4431798.39019</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4905269.66148</v>
+        <v>4949877.178640001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6192594.41931</v>
+        <v>6286541.041060001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7278185.94064</v>
+        <v>7326629.49467</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7799804.58821</v>
+        <v>7892209.01079</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7579432.79649</v>
+        <v>7627791.1313</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9851101.391400002</v>
+        <v>9983540.54573</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14725763.47502</v>
+        <v>14835596.99911</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16328109.58504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16422759.23818</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6881558.318</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2858387.83086</v>
+        <v>2857981.54758</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3380334.95189</v>
+        <v>3380134.79832</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4021522.00173</v>
+        <v>4015568.0233</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4413411.79229</v>
+        <v>4452709.737570001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5593636.74645</v>
+        <v>5676974.723560001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6542431.046450001</v>
+        <v>6593600.307570001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6963296.87476</v>
+        <v>7041634.42825</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6870920.134649999</v>
+        <v>6912176.156260001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8998144.857960001</v>
+        <v>9096174.9465</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13602572.94767</v>
+        <v>13712159.00896</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14957021.57295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15020639.44547</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6174276.528</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>80993.92531999999</v>
+        <v>80613.72192</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>54805.52005</v>
+        <v>52588.95097</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>29502.78227</v>
+        <v>28761.52318</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>55923.1091</v>
+        <v>55080.91868</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>98435.76321999999</v>
+        <v>105920.42174</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7570.98893</v>
+        <v>9310.180380000002</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>33615.88414</v>
+        <v>39062.97975</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>23617.96882</v>
+        <v>21917.40922</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>46015.04017</v>
+        <v>45022.73951000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>128161.68632</v>
+        <v>125546.94169</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>91546.5655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>96529.75227</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>59795.224</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>159530.73076</v>
+        <v>161133.64237</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>198006.30214</v>
+        <v>201809.14453</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>267465.11019</v>
+        <v>268672.16934</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>352282.02794</v>
+        <v>353554.73389</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>399145.39662</v>
+        <v>393659.87083</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>394909.70507</v>
+        <v>389252.86653</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>514911.00116</v>
+        <v>511728.75986</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>552745.6047500001</v>
+        <v>551160.28821</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1445380.7688</v>
+        <v>1459134.74924</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>726779.05087</v>
+        <v>721927.2419299999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1085237.15162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1008552.18792</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>818862.402</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2612832.37133</v>
+        <v>2610654.05704</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3124854.636770001</v>
+        <v>3122759.769379999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3722214.417</v>
+        <v>3715811.6724</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3989075.4568</v>
+        <v>4028314.51621</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5082780.12745</v>
+        <v>5161076.990069999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6134730.31418</v>
+        <v>6190462.437839999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6392116.31226</v>
+        <v>6469321.3359</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6122823.670109999</v>
+        <v>6167324.53712</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>7486240.69193</v>
+        <v>7572559.93165</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>12720060.7568</v>
+        <v>12840090.56284</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>13740436.03384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13878380.76794</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5221573.895</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5030.80345</v>
+        <v>5580.12625</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2668.49293</v>
+        <v>2976.93344</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2339.69227</v>
+        <v>2322.65838</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>16131.19845</v>
+        <v>15759.56879</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13275.45916</v>
+        <v>16317.44092</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5220.038270000001</v>
+        <v>4574.82282</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>22653.6772</v>
+        <v>21521.35274</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>171732.89097</v>
+        <v>171773.92171</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>20508.35706</v>
+        <v>19457.5261</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>27571.45368</v>
+        <v>24594.2625</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>39801.82199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37176.73734000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>74045.007</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>276174.2225</v>
+        <v>282278.85391</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>376869.1026699999</v>
+        <v>364529.06566</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>420876.45962</v>
+        <v>416230.36689</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>491857.86919</v>
+        <v>497167.44107</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>598957.67286</v>
+        <v>609566.3175</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>735754.8941899999</v>
+        <v>733029.1870999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>836507.71345</v>
+        <v>850574.58254</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>708512.6618400001</v>
+        <v>715614.9750399999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>852956.53344</v>
+        <v>887365.5992300001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1123190.52735</v>
+        <v>1123437.99015</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1371088.01209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1402119.79271</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>707281.79</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>293645.14894</v>
+        <v>268732.96777</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>335817.32025</v>
+        <v>320706.3687</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>368104.46698</v>
+        <v>352298.05444</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>435138.34844</v>
+        <v>448891.9079699999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>557486.81999</v>
+        <v>560325.48414</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>669764.26475</v>
+        <v>667139.7213399999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>750848.33792</v>
+        <v>757067.56244</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>730432.97942</v>
+        <v>738111.29541</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>763584.11138</v>
+        <v>822765.55614</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>948355.56846</v>
+        <v>1030387.56132</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1214487.41099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1239753.32624</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>781207.704</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>118.64155</v>
+        <v>72.79362999999999</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>102.80007</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2539.8884</v>
+        <v>2523.0684</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>0.5659999999999999</v>
+        <v>0</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6267.64977</v>
+        <v>6260.92239</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2211.62358</v>
+        <v>2209.00358</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>1695.93837</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1799.5159</v>
+        <v>1799.0759</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>210.84807</v>
+        <v>0</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>666.9975599999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2406.4664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1436.5669</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2040.143</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>42968.94708</v>
+        <v>41829.45101</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>60460.93168</v>
+        <v>58987.67468</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>64013.42114</v>
+        <v>62067.68738</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>85864.32122</v>
+        <v>89769.07334</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>109051.63962</v>
+        <v>110260.39352</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>126220.77578</v>
+        <v>130219.12794</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>120330.44553</v>
+        <v>122112.6889</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>136647.17691</v>
+        <v>140693.63674</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>142664.41213</v>
+        <v>155200.26585</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>198326.02806</v>
+        <v>200050.28999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>233666.82994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>236498.40756</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>138197.63</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>250557.56031</v>
+        <v>226830.72313</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>275253.5885</v>
+        <v>261615.89395</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>301551.15744</v>
+        <v>287707.29866</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>349273.4612200001</v>
+        <v>359122.83463</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>442167.5306</v>
+        <v>443804.16823</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>541331.8653899999</v>
+        <v>534711.5898200001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>628821.9540200001</v>
+        <v>633258.9351700001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>591986.28661</v>
+        <v>595618.58277</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>620708.85118</v>
+        <v>667565.29029</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>749362.54284</v>
+        <v>829670.27377</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>978414.11465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1001818.35178</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>640969.931</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-17470.92644</v>
+        <v>13545.88614</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>41051.78242</v>
+        <v>43822.69695999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>52771.99264</v>
+        <v>63932.31245</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>56719.52075</v>
+        <v>48275.5331</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>41470.85287</v>
+        <v>49240.83336</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>65990.62944</v>
+        <v>65889.46576000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>85659.37553</v>
+        <v>93507.02010000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-21920.31758</v>
+        <v>-22496.32037</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>89372.42205999998</v>
+        <v>64600.04309000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>174834.95889</v>
+        <v>93050.42883000002</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>156600.6011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>162366.46647</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-73925.914</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>88059.13292999999</v>
+        <v>164932.21844</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>88521.97904999999</v>
+        <v>112933.07869</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>109559.89098</v>
+        <v>134548.49532</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>78507.18402</v>
+        <v>117045.22514</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>139653.64551</v>
+        <v>211022.10851</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>140243.25245</v>
+        <v>171751.78756</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>250179.97014</v>
+        <v>295441.83484</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>202133.05427</v>
+        <v>282398.41649</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>220650.93247</v>
+        <v>312119.41557</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1004307.74619</v>
+        <v>997467.2468300001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>518008.08751</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2305774.79098</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1063807.787</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3295.07583</v>
+        <v>1481.03736</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1629.42479</v>
+        <v>1884.70792</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1110.85983</v>
+        <v>657.9562900000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3093.36323</v>
+        <v>1535.33101</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1801.5401</v>
+        <v>7210.2612</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3077.82281</v>
+        <v>9041.93096</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4789.21293</v>
+        <v>9966.57454</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2828.61231</v>
+        <v>6914.315439999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>238.53636</v>
+        <v>10502.63587</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4411.33636</v>
+        <v>11361.16867</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9241.23256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>23875.24778</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>21521.295</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>994.14013</v>
+        <v>84.41592</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0.418</v>
+        <v>23.50427</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>571.5862499999999</v>
@@ -1820,247 +1836,277 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>628.15192</v>
+        <v>182.58444</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>174.45311</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1382.38902</v>
+        <v>2.07884</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1025.44107</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1248.65</v>
+        <v>2808.89738</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>1542.39639</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>301.50324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1772617.06724</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8506.06978</v>
+        <v>14086.35089</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7407.468380000001</v>
+        <v>7984.328229999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>6026.65941</v>
+        <v>6471.0975</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7851.635939999999</v>
+        <v>11287.00682</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8553.529970000001</v>
+        <v>16892.04064</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>10252.63694</v>
+        <v>9411.968560000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>11254.55195</v>
+        <v>13790.91672</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>10748.1054</v>
+        <v>11330.55858</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>14538.66549</v>
+        <v>24854.71692</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>37345.11174</v>
+        <v>34186.2011</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>39823.55873</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>35675.19077</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>25755.11</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>9398.79578</v>
+        <v>9387.36238</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>10794.35934</v>
+        <v>10635.16393</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>9582.690259999999</v>
+        <v>9386.85961</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>9128.510739999998</v>
+        <v>9398.559499999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>9225.40322</v>
+        <v>9437.694140000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>13330.91251</v>
+        <v>11318.69089</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>17378.7413</v>
+        <v>13843.67698</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>18867.90948</v>
+        <v>15095.68274</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>16743.92114</v>
+        <v>10681.81565</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>35337.72255000001</v>
+        <v>29697.90711</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>34990.44371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>35463.44811</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>8173.315</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>410.86939</v>
+        <v>433.05833</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>661.44042</v>
+        <v>559.77221</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>918.85561</v>
+        <v>1429.46348</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>393.6061100000001</v>
+        <v>2844.20113</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>684.49797</v>
+        <v>516.0708100000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>706.10279</v>
+        <v>724.49404</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>234.08595</v>
+        <v>254.64371</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>741.9008699999999</v>
+        <v>1002.44548</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1933.12445</v>
+        <v>1358.56641</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>702.7722</v>
+        <v>629.21005</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>756.6286600000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>712.9886</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1976.107</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1226.1119</v>
+        <v>270.10067</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>791.7898399999999</v>
+        <v>614.1319599999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>620.61569</v>
+        <v>542.04823</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>693.7660999999999</v>
+        <v>983.82462</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1193.23166</v>
+        <v>17337.66488</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>917.3053500000001</v>
+        <v>13722.08429</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1987.51067</v>
+        <v>11748.66357</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>982.87621</v>
+        <v>7387.89017</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1065.54677</v>
+        <v>1569.92305</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5457.8117</v>
+        <v>20703.13769</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6406.62258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4460.63086</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3251.673</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>46047.06283</v>
+        <v>93867.51419000002</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>54798.43593</v>
+        <v>80931.4862</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>77626.45565</v>
+        <v>104265.3032</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>42341.72057</v>
+        <v>70404.91072</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>102338.4717</v>
+        <v>144548.53176</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>83140.92429000001</v>
+        <v>102557.82227</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>183824.74651</v>
+        <v>207515.85937</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>138427.57301</v>
+        <v>214635.82023</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>154129.94054</v>
+        <v>226470.19901</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>867640.6246399999</v>
+        <v>870699.38243</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>357075.23629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>388808.80019</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>829537.956</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>392.47987</v>
+        <v>211.47334</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>329.57569</v>
+        <v>327.95086</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>19.66231</v>
+        <v>9.953250000000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1.90002</v>
+        <v>2e-05</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>36.49043</v>
+        <v>33.05799</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>20.09399</v>
+        <v>8.565329999999999</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>51.65797999999999</v>
@@ -2069,40 +2115,45 @@
         <v>29.47546</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1831.99357</v>
+        <v>61.08441000000001</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>1251.9334</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5.634</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>55.15751</v>
+        <v>40.07058</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>23.97654</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>51.17721</v>
+        <v>7.672560000000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>63.83011</v>
+        <v>57.3294</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>123.81475</v>
+        <v>101.1558</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>191.87937</v>
+        <v>173.80617</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>21.35692</v>
+        <v>1.12668</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>22.66988</v>
+        <v>4.70121</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>2e-05</v>
@@ -2111,187 +2162,212 @@
         <v>230.78845</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>85.33983000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>106.1185</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>17733.36991</v>
+        <v>45070.83477999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>12085.09012</v>
+        <v>9972.03311</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>13031.32876</v>
+        <v>11206.55495</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>14937.9162</v>
+        <v>20533.12692</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>15104.51222</v>
+        <v>14796.10484</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>28414.72485</v>
+        <v>24593.47928</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>29287.2809</v>
+        <v>38309.7291</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>28436.30806</v>
+        <v>25975.34466</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>30723.07224</v>
+        <v>33843.1858</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>49807.18859</v>
+        <v>28355.97053</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>68075.58850999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>42803.36553</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>173586.692</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>55426.59614</v>
+        <v>104951.15211</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>59776.62151</v>
+        <v>75518.66205</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>86481.72841</v>
+        <v>119567.15541</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>57696.90222</v>
+        <v>71270.74537</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>106832.20522</v>
+        <v>159646.19281</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>100648.0707</v>
+        <v>116572.08272</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>197924.18849</v>
+        <v>232216.65813</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>156617.67174</v>
+        <v>228291.71769</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>172993.13439</v>
+        <v>286652.29287</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>967725.9869200001</v>
+        <v>1023561.64422</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>547899.79108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>558973.32036</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>852196.192</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4192.0526</v>
+        <v>4603.39348</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3519.76524</v>
+        <v>3472.33166</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7660.149179999999</v>
+        <v>7642.833320000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>9072.61621</v>
+        <v>9082.95586</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>4197.065799999999</v>
+        <v>4196.47638</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5137.718989999999</v>
+        <v>3554.44009</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>9905.348109999999</v>
+        <v>6515.88115</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>10848.43042</v>
+        <v>6871.81402</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7294.976640000001</v>
+        <v>3440.24387</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>58951.69768</v>
+        <v>53067.31953</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>8021.181810000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7664.066340000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3905.891</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4152.174</v>
+        <v>4047.31625</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3808.11198</v>
+        <v>3252.71356</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3138.8389</v>
+        <v>2430.68307</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2689.02118</v>
+        <v>2502.51153</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4035.22791</v>
+        <v>3740.23567</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4646.38986</v>
+        <v>4006.01341</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7413.8867</v>
+        <v>7514.56041</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3150.64262</v>
+        <v>5189.04835</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5022.33031</v>
+        <v>10512.87025</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9533.01305</v>
+        <v>9949.663049999999</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>185717.7833</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>9489.424999999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1458.27656</v>
+        <v>754.04255</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>117.61555</v>
+        <v>92.92302000000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>967.34884</v>
+        <v>982.8632299999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>283.30829</v>
+        <v>305.97702</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>328.78397</v>
+        <v>16307.86161</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>241.26038</v>
+        <v>224.67956</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>65.76413000000001</v>
@@ -2300,64 +2376,74 @@
         <v>28.71346</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>225.96006</v>
+        <v>8835.463689999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>478.98786</v>
+        <v>18204.92259</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1431.41588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1560.14183</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>427.907</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>42866.40716</v>
+        <v>83577.87546000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>50831.83321</v>
+        <v>67087.58324000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>66269.14529</v>
+        <v>103635.83778</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>41849.77611999999</v>
+        <v>55765.42718999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>94036.77846</v>
+        <v>129694.3171</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>82829.61121999999</v>
+        <v>102770.77307</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>172986.65676</v>
+        <v>212838.8447</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>131508.98687</v>
+        <v>206440.11645</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>148096.39661</v>
+        <v>253932.90561</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>888600.6124099999</v>
+        <v>932843.01937</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>337600.79921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>352687.9155999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>796967.231</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>26.35339</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>12.48125</v>
+        <v>0.39164</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2366,31 +2452,36 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>28.9818</v>
+        <v>0.92496</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>3.85106</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>123.49862</v>
+        <v>122.57376</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>77.54017999999999</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>72.11336999999999</v>
+        <v>104.04541</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>31.53841</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>0.28442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>5.634</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.06604</v>
@@ -2402,16 +2493,16 @@
         <v>50.48159</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>7.73499</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>4.23651</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>111.66049</v>
+        <v>103.19297</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>5.14073</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>34.4577</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>61.26854</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2731.26639</v>
+        <v>11942.10494</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1486.81428</v>
+        <v>1612.71893</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8395.76461</v>
+        <v>4824.45642</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3794.44543</v>
+        <v>3613.87377</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4201.13077</v>
+        <v>5702.14058</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7677.5787</v>
+        <v>5909.13256</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7423.89344</v>
+        <v>5159.033979999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>10968.90049</v>
+        <v>9727.567709999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>12281.06015</v>
+        <v>9826.466789999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10087.45928</v>
+        <v>9422.50304</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>15067.05792</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>11282.14475</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>41400.1</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>27034.04525</v>
+        <v>45833.69654</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>26521.02992</v>
+        <v>40354.94176000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>28667.10019</v>
+        <v>31498.21574</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>34688.06814</v>
+        <v>48231.06561</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>42570.91935</v>
+        <v>70433.73245</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>50128.45627</v>
+        <v>57955.18485000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>63451.98903</v>
+        <v>72708.88212000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>74165.00559</v>
+        <v>121053.37481</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>87775.76921</v>
+        <v>112280.50046</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>180575.83717</v>
+        <v>224650.53085</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>176179.37097</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>178577.30796</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>150040.685</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>25918.09574</v>
+        <v>35021.25246</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>25609.06492</v>
+        <v>26748.61841</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>26378.57236</v>
+        <v>29821.87548</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>33540.75193000001</v>
+        <v>36309.73101</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>40621.71079</v>
+        <v>50885.25489</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>47772.12452</v>
+        <v>54869.24543</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>58726.5632</v>
+        <v>67397.41605</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>69764.98579000001</v>
+        <v>81588.67463999998</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>83333.78520999999</v>
+        <v>106360.75608</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>171532.18473</v>
+        <v>217303.56552</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>172078.83221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>175044.34041</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>144203.804</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1115.94951</v>
+        <v>10812.44408</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>911.965</v>
+        <v>13606.32335</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2288.52783</v>
+        <v>1676.34026</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1147.31621</v>
+        <v>11921.3346</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1949.20856</v>
+        <v>19548.47756</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2356.33175</v>
+        <v>3085.93942</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4725.42583</v>
+        <v>5311.46607</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>4400.0198</v>
+        <v>39464.70017</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4441.984</v>
+        <v>5919.744380000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>9043.652440000002</v>
+        <v>7346.96533</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4100.53876</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3532.96755</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5836.881</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-11872.4349</v>
+        <v>27693.25593</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>43276.11004</v>
+        <v>40882.17184</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>47183.05502</v>
+        <v>47415.43662000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>42841.73441</v>
+        <v>45818.94726</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>31721.37381</v>
+        <v>30183.01661</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>55457.35492000001</v>
+        <v>63113.98575</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>74463.16815</v>
+        <v>84023.31469</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-50569.94064</v>
+        <v>-89442.99638</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>49254.45093000001</v>
+        <v>-22213.33467</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>30840.88099</v>
+        <v>-157694.49941</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-49470.47344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1730590.62913</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-12355.004</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>14534.22764</v>
+        <v>17833.86937</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>21714.09293</v>
+        <v>15563.62219</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>28362.01928</v>
+        <v>70912.34808999998</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>27858.70074</v>
+        <v>22781.14869</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>28712.73627</v>
+        <v>27240.65202</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>35292.47322</v>
+        <v>47075.17535</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>48492.07083999999</v>
+        <v>46613.03494000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>54208.09776</v>
+        <v>69417.15490000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>60479.65539</v>
+        <v>59383.50803</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>76030.42462000001</v>
+        <v>68650.20061</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>114951.95363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>102003.87819</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>112341.739</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1320.385</v>
+        <v>1286.97402</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>489.96378</v>
+        <v>384.04326</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>528.97523</v>
+        <v>511.73606</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>437.57002</v>
+        <v>320.30961</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>544.97284</v>
+        <v>583.8021600000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>100.99828</v>
+        <v>94.27102000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>771.8844099999999</v>
+        <v>739.8435299999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>153.95658</v>
+        <v>628.9109900000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>852.5895400000001</v>
+        <v>851.5073600000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6139.70145</v>
+        <v>6060.571660000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3831.21773</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4252.34695</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>906.901</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>13213.84264</v>
+        <v>16546.89535</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>21224.12915</v>
+        <v>15179.57893</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>27833.04405</v>
+        <v>70400.61202999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>27421.13072</v>
+        <v>22460.83908</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>28167.76343</v>
+        <v>26656.84986</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>35191.47494</v>
+        <v>46980.90433</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>47720.18643000001</v>
+        <v>45873.19141000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>54054.14118</v>
+        <v>68788.24390999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>59627.06584999999</v>
+        <v>58532.00067</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>69890.72317</v>
+        <v>62589.62895</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>111120.7359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>97751.53124000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>111434.838</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>23462.33902</v>
+        <v>26620.84255</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>25920.89119</v>
+        <v>17215.88152</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>145903.54089</v>
+        <v>93435.13076</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>27686.0574</v>
+        <v>25120.11538</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>27484.73195</v>
+        <v>28006.61719</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>104952.77259</v>
+        <v>93790.96999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>46613.40243</v>
+        <v>44736.97217</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>95447.72707000001</v>
+        <v>90122.60798999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>211796.29321</v>
+        <v>51641.89166</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>127557.42228</v>
+        <v>178033.86276</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>111006.98697</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>91063.83921999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>74853.757</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>112.20707</v>
+        <v>96.51759</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>59.36555000000001</v>
+        <v>41.1753</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>369.11828</v>
+        <v>24.17183</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>17.2981</v>
+        <v>12.77017</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>46.91866</v>
+        <v>310.42204</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>26.97259</v>
+        <v>0.93704</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>341.63148</v>
+        <v>317.04308</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1223.58555</v>
+        <v>662.27576</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>223.49355</v>
+        <v>1773.92193</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1292.35002</v>
+        <v>673.31337</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1011.80784</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>823.3894</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2044.42</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1333.59891</v>
+        <v>1333.12763</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1200.84171</v>
+        <v>1092.32975</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2411.46459</v>
+        <v>1120.9967</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3931.61001</v>
+        <v>3947.74218</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1092.00809</v>
+        <v>978.13387</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11694.51598</v>
+        <v>11197.12921</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2561.01474</v>
+        <v>1782.60156</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1035.75893</v>
+        <v>1433.11033</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>96949.65431</v>
+        <v>985.9424299999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>19011.36787</v>
+        <v>15341.86196</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6794.25716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6755.42563</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>16849.027</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>22016.53304</v>
+        <v>25191.19733</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>24660.68393</v>
+        <v>16082.37647</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>143122.95802</v>
+        <v>92289.96223</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>23737.14929</v>
+        <v>21159.60303</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>26345.8052</v>
+        <v>26718.06128</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>93231.28402000001</v>
+        <v>82592.90373999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>43710.75621</v>
+        <v>42637.32753</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>93188.38258999999</v>
+        <v>88027.2219</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>114623.14535</v>
+        <v>48882.0273</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>107253.70439</v>
+        <v>162018.68743</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>103200.92197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>83485.02419</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>55960.31</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-20800.54628</v>
+        <v>18906.28275</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>39069.31178</v>
+        <v>39229.91250999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-70358.46659</v>
+        <v>24892.65395</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>43014.37775</v>
+        <v>43479.98057</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>32949.37813</v>
+        <v>29417.05144</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-14202.94445</v>
+        <v>16398.19111</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>76341.83655999998</v>
+        <v>85899.37746</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-91809.56994999999</v>
+        <v>-110148.44947</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-102062.18689</v>
+        <v>-14471.7183</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-20686.11667</v>
+        <v>-267078.16156</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-45525.50678</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1741530.6681</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>25132.978</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>12640.81546</v>
+        <v>12617.11028</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>14915.57943</v>
+        <v>13935.82297</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>19013.08639</v>
+        <v>20388.18812</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>17767.7443</v>
+        <v>17442.40865</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>20978.28087</v>
+        <v>20835.68275</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>24760.34391</v>
+        <v>26378.7457</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>30093.34431</v>
+        <v>32782.47028</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>21942.20086</v>
+        <v>23824.8659</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>28010.10179</v>
+        <v>27897.71987</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>59717.41182</v>
+        <v>54037.45735</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>76497.32724</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>69512.81236</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>41290.731</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-33441.36174</v>
+        <v>6289.172470000002</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>24153.73235</v>
+        <v>25294.08954</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-89371.55298000001</v>
+        <v>4504.46583</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>25246.63345</v>
+        <v>26037.57192</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>11971.09726</v>
+        <v>8581.368689999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-38963.28836</v>
+        <v>-9980.55459</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>46248.49225</v>
+        <v>53116.90718</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-113751.77081</v>
+        <v>-133973.31537</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-130072.28868</v>
+        <v>-42369.43816999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-80403.52849</v>
+        <v>-321115.61891</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-122022.83402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1672017.85574</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-16157.753</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>969</v>
+        <v>706</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1068</v>
+        <v>751</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1143</v>
+        <v>815</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1228</v>
+        <v>930</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1321</v>
+        <v>1002</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1449</v>
+        <v>1128</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1581</v>
+        <v>1226</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1675</v>
+        <v>1226</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1895</v>
+        <v>1416</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1261</v>
+        <v>1014</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1183</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>